--- a/01 - Persistance des données/1 - Concevoir une base de données/Exercices/9.3 - Gestion bibliotheque.xlsx
+++ b/01 - Persistance des données/1 - Concevoir une base de données/Exercices/9.3 - Gestion bibliotheque.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Partage\bibliotheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-07\Reference\01 - Persistance des données\1 - Concevoir une base de données\Exercices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1520,123 +1520,15 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,113 +1538,20 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,6 +1591,69 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1801,15 +1663,6 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1819,64 +1672,211 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,34 +2176,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2222,41 +2222,41 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="180" t="s">
+    <row r="2" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="181"/>
+      <c r="C2" s="228"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="134"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="231"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="121" t="s">
+      <c r="M2" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="123"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="221"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="124" t="s">
+      <c r="S2" s="199" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="126"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="201"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="97"/>
       <c r="B3" s="104" t="s">
         <v>1</v>
@@ -2318,12 +2318,12 @@
       <c r="W3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="X3" s="188" t="s">
+      <c r="X3" s="127" t="s">
         <v>133</v>
       </c>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="97"/>
       <c r="B4" s="102">
         <v>1</v>
@@ -2385,12 +2385,12 @@
       <c r="W4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="X4" s="225">
+      <c r="X4" s="152">
         <v>37592</v>
       </c>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="97"/>
       <c r="B5" s="98">
         <v>2</v>
@@ -2452,12 +2452,12 @@
       <c r="W5" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="X5" s="225">
+      <c r="X5" s="152">
         <v>41246</v>
       </c>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="97"/>
       <c r="B6" s="98">
         <v>3</v>
@@ -2516,15 +2516,15 @@
       <c r="V6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="W6" s="144">
+      <c r="W6" s="120">
         <v>37655</v>
       </c>
-      <c r="X6" s="225">
+      <c r="X6" s="152">
         <v>37656</v>
       </c>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="97"/>
       <c r="B7" s="98">
         <v>4</v>
@@ -2583,15 +2583,15 @@
       <c r="V7" s="30">
         <v>2</v>
       </c>
-      <c r="W7" s="144">
+      <c r="W7" s="120">
         <v>38445</v>
       </c>
-      <c r="X7" s="225">
+      <c r="X7" s="152">
         <v>38456</v>
       </c>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="97"/>
       <c r="B8" s="98">
         <v>5</v>
@@ -2650,15 +2650,15 @@
       <c r="V8" s="30">
         <v>2</v>
       </c>
-      <c r="W8" s="144">
+      <c r="W8" s="120">
         <v>37330</v>
       </c>
-      <c r="X8" s="225">
+      <c r="X8" s="152">
         <v>37336</v>
       </c>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
       <c r="B9" s="98">
         <v>6</v>
@@ -2717,15 +2717,15 @@
       <c r="V9" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="144">
+      <c r="W9" s="120">
         <v>37585</v>
       </c>
-      <c r="X9" s="225">
+      <c r="X9" s="152">
         <v>37597</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="97"/>
       <c r="B10" s="100">
         <v>7</v>
@@ -2784,15 +2784,15 @@
       <c r="V10" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="226">
+      <c r="W10" s="153">
         <v>37592</v>
       </c>
-      <c r="X10" s="227">
+      <c r="X10" s="154">
         <v>37598</v>
       </c>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2817,40 +2817,40 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+    <row r="12" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="233"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="138"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="237"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="139" t="s">
+      <c r="N12" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="140"/>
+      <c r="O12" s="239"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="176" t="s">
+      <c r="Q12" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="177"/>
-      <c r="T12" s="127" t="s">
+      <c r="R12" s="216"/>
+      <c r="T12" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="128"/>
-      <c r="V12" s="129"/>
+      <c r="U12" s="223"/>
+      <c r="V12" s="224"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="97"/>
       <c r="B13" s="13" t="s">
         <v>13</v>
@@ -2859,23 +2859,23 @@
         <v>14</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="157" t="s">
+      <c r="E13" s="121" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="154" t="s">
+      <c r="G13" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="155"/>
+      <c r="H13" s="181"/>
       <c r="I13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="154" t="s">
+      <c r="J13" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="155"/>
+      <c r="K13" s="181"/>
       <c r="L13" s="9"/>
       <c r="M13" s="4"/>
       <c r="N13" s="41" t="s">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="97"/>
       <c r="B14" s="20">
         <v>1</v>
@@ -2917,17 +2917,17 @@
       <c r="F14" s="46">
         <v>1</v>
       </c>
-      <c r="G14" s="182">
+      <c r="G14" s="174">
         <v>1</v>
       </c>
-      <c r="H14" s="183"/>
+      <c r="H14" s="175"/>
       <c r="I14" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="153">
+      <c r="J14" s="207">
         <v>347233</v>
       </c>
-      <c r="K14" s="190"/>
+      <c r="K14" s="208"/>
       <c r="L14" s="9"/>
       <c r="M14" s="4"/>
       <c r="N14" s="47">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="97"/>
       <c r="B15" s="29">
         <v>2</v>
@@ -2969,15 +2969,17 @@
       <c r="F15" s="53">
         <v>1</v>
       </c>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
+      <c r="G15" s="176">
+        <v>2</v>
+      </c>
+      <c r="H15" s="177"/>
       <c r="I15" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="152">
+      <c r="J15" s="209">
         <v>384239</v>
       </c>
-      <c r="K15" s="191"/>
+      <c r="K15" s="210"/>
       <c r="L15" s="9"/>
       <c r="M15" s="4"/>
       <c r="N15" s="54">
@@ -3004,7 +3006,7 @@
       </c>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="97"/>
       <c r="B16" s="29">
         <v>3</v>
@@ -3019,15 +3021,17 @@
       <c r="F16" s="46">
         <v>3</v>
       </c>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
+      <c r="G16" s="176">
+        <v>3</v>
+      </c>
+      <c r="H16" s="177"/>
       <c r="I16" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="152">
+      <c r="J16" s="209">
         <v>454834</v>
       </c>
-      <c r="K16" s="191"/>
+      <c r="K16" s="210"/>
       <c r="L16" s="9"/>
       <c r="M16" s="4"/>
       <c r="N16" s="47">
@@ -3054,7 +3058,7 @@
       </c>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="97"/>
       <c r="B17" s="29">
         <v>4</v>
@@ -3069,15 +3073,17 @@
       <c r="F17" s="53">
         <v>2</v>
       </c>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
+      <c r="G17" s="176">
+        <v>4</v>
+      </c>
+      <c r="H17" s="177"/>
       <c r="I17" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="152">
+      <c r="J17" s="209">
         <v>439058</v>
       </c>
-      <c r="K17" s="191"/>
+      <c r="K17" s="210"/>
       <c r="L17" s="9"/>
       <c r="M17" s="4"/>
       <c r="N17" s="54">
@@ -3104,7 +3110,7 @@
       </c>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="97"/>
       <c r="B18" s="29">
         <v>5</v>
@@ -3119,15 +3125,17 @@
       <c r="F18" s="46">
         <v>6</v>
       </c>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
+      <c r="G18" s="176">
+        <v>5</v>
+      </c>
+      <c r="H18" s="177"/>
       <c r="I18" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="152">
+      <c r="J18" s="209">
         <v>588540</v>
       </c>
-      <c r="K18" s="191"/>
+      <c r="K18" s="210"/>
       <c r="L18" s="9"/>
       <c r="M18" s="4"/>
       <c r="N18" s="47">
@@ -3154,7 +3162,7 @@
       </c>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="97"/>
       <c r="B19" s="29">
         <v>6</v>
@@ -3169,15 +3177,17 @@
       <c r="F19" s="53">
         <v>5</v>
       </c>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
+      <c r="G19" s="176">
+        <v>4</v>
+      </c>
+      <c r="H19" s="177"/>
       <c r="I19" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="152">
+      <c r="J19" s="209">
         <v>439058</v>
       </c>
-      <c r="K19" s="191"/>
+      <c r="K19" s="210"/>
       <c r="L19" s="9"/>
       <c r="M19" s="4"/>
       <c r="N19" s="54">
@@ -3204,7 +3214,7 @@
       </c>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="97"/>
       <c r="B20" s="37">
         <v>7</v>
@@ -3216,24 +3226,26 @@
       <c r="E20" s="59">
         <v>7</v>
       </c>
-      <c r="F20" s="189">
+      <c r="F20" s="128">
         <v>7</v>
       </c>
-      <c r="G20" s="186"/>
-      <c r="H20" s="187"/>
+      <c r="G20" s="178">
+        <v>6</v>
+      </c>
+      <c r="H20" s="179"/>
       <c r="I20" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="156">
+      <c r="J20" s="211">
         <v>754352</v>
       </c>
-      <c r="K20" s="192"/>
+      <c r="K20" s="212"/>
       <c r="L20" s="9"/>
       <c r="M20" s="4"/>
       <c r="N20" s="92">
         <v>7</v>
       </c>
-      <c r="O20" s="160" t="s">
+      <c r="O20" s="124" t="s">
         <v>144</v>
       </c>
       <c r="P20" s="4"/>
@@ -3256,7 +3268,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="97"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3286,7 +3298,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="F22" s="1"/>
@@ -3300,20 +3312,20 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="178" t="s">
+    <row r="23" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="179"/>
-      <c r="F23" s="119" t="s">
+      <c r="C23" s="218"/>
+      <c r="F23" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="120"/>
+      <c r="G23" s="214"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="130" t="s">
+      <c r="I23" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="131"/>
+      <c r="J23" s="226"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3323,7 +3335,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="97"/>
       <c r="B24" s="111" t="s">
         <v>24</v>
@@ -3346,25 +3358,25 @@
         <v>31</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="173" t="s">
+      <c r="M24" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="N24" s="174"/>
-      <c r="O24" s="175"/>
-      <c r="Q24" s="165" t="s">
+      <c r="N24" s="203"/>
+      <c r="O24" s="204"/>
+      <c r="Q24" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="168"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
+      <c r="V24" s="195"/>
+      <c r="W24" s="196"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="69"/>
       <c r="Z24" s="70"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="97"/>
       <c r="B25" s="109">
         <v>1</v>
@@ -3387,10 +3399,10 @@
         <v>68</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="238" t="s">
+      <c r="M25" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="N25" s="239"/>
+      <c r="N25" s="193"/>
       <c r="O25" s="66" t="s">
         <v>136</v>
       </c>
@@ -3409,15 +3421,15 @@
       <c r="U25" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="V25" s="171" t="s">
+      <c r="V25" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="W25" s="172"/>
+      <c r="W25" s="183"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="69"/>
       <c r="Z25" s="70"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="97"/>
       <c r="B26" s="105">
         <v>2</v>
@@ -3440,17 +3452,17 @@
         <v>69</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="145">
+      <c r="M26" s="205">
         <v>1</v>
       </c>
-      <c r="N26" s="146"/>
+      <c r="N26" s="206"/>
       <c r="O26" s="75" t="s">
         <v>145</v>
       </c>
       <c r="Q26" s="71">
         <v>1</v>
       </c>
-      <c r="R26" s="167">
+      <c r="R26" s="126">
         <v>21504</v>
       </c>
       <c r="S26" s="72" t="b">
@@ -3462,15 +3474,15 @@
       <c r="U26" s="72">
         <v>5</v>
       </c>
-      <c r="V26" s="169">
+      <c r="V26" s="184">
         <v>1</v>
       </c>
-      <c r="W26" s="170"/>
+      <c r="W26" s="185"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="69"/>
       <c r="Z26" s="70"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="97"/>
       <c r="B27" s="105">
         <v>3</v>
@@ -3493,17 +3505,17 @@
         <v>70</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="147">
+      <c r="M27" s="197">
         <v>2</v>
       </c>
-      <c r="N27" s="148"/>
+      <c r="N27" s="198"/>
       <c r="O27" s="82" t="s">
         <v>146</v>
       </c>
       <c r="Q27" s="78">
         <v>2</v>
       </c>
-      <c r="R27" s="159">
+      <c r="R27" s="123">
         <v>20803</v>
       </c>
       <c r="S27" s="79" t="b">
@@ -3515,15 +3527,15 @@
       <c r="U27" s="79">
         <v>5</v>
       </c>
-      <c r="V27" s="151">
+      <c r="V27" s="186">
         <v>2</v>
       </c>
-      <c r="W27" s="161"/>
+      <c r="W27" s="187"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="69"/>
       <c r="Z27" s="70"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="97"/>
       <c r="B28" s="105">
         <v>4</v>
@@ -3546,17 +3558,17 @@
         <v>71</v>
       </c>
       <c r="L28" s="4"/>
-      <c r="M28" s="147">
+      <c r="M28" s="197">
         <v>3</v>
       </c>
-      <c r="N28" s="148"/>
+      <c r="N28" s="198"/>
       <c r="O28" s="82" t="s">
         <v>147</v>
       </c>
       <c r="Q28" s="78">
         <v>3</v>
       </c>
-      <c r="R28" s="159">
+      <c r="R28" s="123">
         <v>33206</v>
       </c>
       <c r="S28" s="79" t="b">
@@ -3568,15 +3580,15 @@
       <c r="U28" s="79">
         <v>5</v>
       </c>
-      <c r="V28" s="151">
+      <c r="V28" s="186">
         <v>3</v>
       </c>
-      <c r="W28" s="161"/>
+      <c r="W28" s="187"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="69"/>
       <c r="Z28" s="70"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="97"/>
       <c r="B29" s="105">
         <v>5</v>
@@ -3599,17 +3611,17 @@
         <v>72</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="147">
+      <c r="M29" s="197">
         <v>4</v>
       </c>
-      <c r="N29" s="148"/>
+      <c r="N29" s="198"/>
       <c r="O29" s="82" t="s">
         <v>148</v>
       </c>
       <c r="Q29" s="78">
         <v>4</v>
       </c>
-      <c r="R29" s="159">
+      <c r="R29" s="123">
         <v>29288</v>
       </c>
       <c r="S29" s="79" t="b">
@@ -3621,15 +3633,15 @@
       <c r="U29" s="79">
         <v>7</v>
       </c>
-      <c r="V29" s="151">
+      <c r="V29" s="186">
         <v>4</v>
       </c>
-      <c r="W29" s="161"/>
+      <c r="W29" s="187"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="69"/>
       <c r="Z29" s="70"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="97"/>
       <c r="B30" s="105">
         <v>6</v>
@@ -3652,17 +3664,17 @@
         <v>73</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="147">
+      <c r="M30" s="197">
         <v>5</v>
       </c>
-      <c r="N30" s="148"/>
+      <c r="N30" s="198"/>
       <c r="O30" s="82" t="s">
         <v>149</v>
       </c>
       <c r="Q30" s="78">
         <v>5</v>
       </c>
-      <c r="R30" s="159">
+      <c r="R30" s="123">
         <v>20319</v>
       </c>
       <c r="S30" s="79" t="b">
@@ -3674,15 +3686,15 @@
       <c r="U30" s="79">
         <v>5</v>
       </c>
-      <c r="V30" s="151">
+      <c r="V30" s="186">
         <v>5</v>
       </c>
-      <c r="W30" s="161"/>
+      <c r="W30" s="187"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="69"/>
       <c r="Z30" s="70"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="97"/>
       <c r="B31" s="105">
         <v>7</v>
@@ -3705,17 +3717,17 @@
         <v>74</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="147">
+      <c r="M31" s="197">
         <v>6</v>
       </c>
-      <c r="N31" s="148"/>
+      <c r="N31" s="198"/>
       <c r="O31" s="82" t="s">
         <v>150</v>
       </c>
       <c r="Q31" s="78">
         <v>6</v>
       </c>
-      <c r="R31" s="159">
+      <c r="R31" s="123">
         <v>31494</v>
       </c>
       <c r="S31" s="79" t="b">
@@ -3727,15 +3739,15 @@
       <c r="U31" s="79">
         <v>2</v>
       </c>
-      <c r="V31" s="151">
+      <c r="V31" s="186">
         <v>6</v>
       </c>
-      <c r="W31" s="161"/>
+      <c r="W31" s="187"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="69"/>
       <c r="Z31" s="70"/>
     </row>
-    <row r="32" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="97"/>
       <c r="B32" s="107">
         <v>8</v>
@@ -3758,17 +3770,17 @@
         <v>75</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="147">
+      <c r="M32" s="197">
         <v>7</v>
       </c>
-      <c r="N32" s="148"/>
+      <c r="N32" s="198"/>
       <c r="O32" s="82" t="s">
         <v>151</v>
       </c>
       <c r="Q32" s="85">
         <v>7</v>
       </c>
-      <c r="R32" s="162">
+      <c r="R32" s="125">
         <v>21504</v>
       </c>
       <c r="S32" s="86" t="b">
@@ -3780,15 +3792,15 @@
       <c r="U32" s="86">
         <v>3</v>
       </c>
-      <c r="V32" s="163">
+      <c r="V32" s="188">
         <v>7</v>
       </c>
-      <c r="W32" s="164"/>
+      <c r="W32" s="189"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="69"/>
       <c r="Z32" s="70"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="97"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3800,11 +3812,11 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="149">
+      <c r="M33" s="190">
         <v>8</v>
       </c>
-      <c r="N33" s="150"/>
-      <c r="O33" s="193" t="s">
+      <c r="N33" s="191"/>
+      <c r="O33" s="129" t="s">
         <v>152</v>
       </c>
       <c r="P33" s="4"/>
@@ -3815,7 +3827,7 @@
       <c r="Y33" s="69"/>
       <c r="Z33" s="70"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3839,24 +3851,24 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="194"/>
-      <c r="E35" s="195" t="s">
+    <row r="35" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D35" s="130"/>
+      <c r="E35" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="196"/>
-      <c r="G35" s="197"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="173"/>
       <c r="H35" s="1"/>
-      <c r="J35" s="211" t="s">
+      <c r="J35" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="212"/>
-      <c r="L35" s="213"/>
-      <c r="Q35" s="217" t="s">
+      <c r="K35" s="166"/>
+      <c r="L35" s="167"/>
+      <c r="Q35" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="R35" s="218"/>
-      <c r="S35" s="219"/>
+      <c r="R35" s="169"/>
+      <c r="S35" s="170"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -3864,34 +3876,34 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="4"/>
-      <c r="E36" s="198" t="s">
+      <c r="E36" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="200" t="s">
+      <c r="F36" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="198" t="s">
+      <c r="G36" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="214" t="s">
+      <c r="J36" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="214" t="s">
+      <c r="K36" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="214" t="s">
+      <c r="L36" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="221" t="s">
+      <c r="P36" s="119"/>
+      <c r="Q36" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="R36" s="220" t="s">
+      <c r="R36" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="220" t="s">
+      <c r="S36" s="147" t="s">
         <v>159</v>
       </c>
       <c r="T36" s="3"/>
@@ -3901,34 +3913,34 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
-      <c r="E37" s="201">
+      <c r="E37" s="134">
         <v>1</v>
       </c>
-      <c r="F37" s="204">
+      <c r="F37" s="137">
         <v>1</v>
       </c>
-      <c r="G37" s="199">
+      <c r="G37" s="132">
         <v>1</v>
       </c>
-      <c r="J37" s="228">
+      <c r="J37" s="155">
         <v>1</v>
       </c>
-      <c r="K37" s="215">
+      <c r="K37" s="145">
         <v>1</v>
       </c>
-      <c r="L37" s="229">
+      <c r="L37" s="156">
         <v>1</v>
       </c>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="222">
+      <c r="P37" s="119"/>
+      <c r="Q37" s="149">
         <v>1</v>
       </c>
-      <c r="R37" s="209">
+      <c r="R37" s="142">
         <v>1</v>
       </c>
-      <c r="S37" s="223">
+      <c r="S37" s="150">
         <v>1</v>
       </c>
       <c r="V37" s="1"/>
@@ -3936,34 +3948,34 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="4"/>
-      <c r="E38" s="202">
+      <c r="E38" s="135">
         <v>2</v>
       </c>
-      <c r="F38" s="205">
+      <c r="F38" s="138">
         <v>2</v>
       </c>
-      <c r="G38" s="203">
+      <c r="G38" s="136">
         <v>2</v>
       </c>
-      <c r="J38" s="230">
+      <c r="J38" s="157">
         <v>2</v>
       </c>
-      <c r="K38" s="216">
+      <c r="K38" s="146">
         <v>2</v>
       </c>
-      <c r="L38" s="231">
+      <c r="L38" s="158">
         <v>2</v>
       </c>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="224">
+      <c r="P38" s="119"/>
+      <c r="Q38" s="151">
         <v>2</v>
       </c>
-      <c r="R38" s="210">
+      <c r="R38" s="143">
         <v>2</v>
       </c>
-      <c r="S38" s="223">
+      <c r="S38" s="150">
         <v>2</v>
       </c>
       <c r="V38" s="1"/>
@@ -3971,34 +3983,34 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
-      <c r="E39" s="202">
+      <c r="E39" s="135">
         <v>3</v>
       </c>
-      <c r="F39" s="204">
+      <c r="F39" s="137">
         <v>3</v>
       </c>
-      <c r="G39" s="199">
+      <c r="G39" s="132">
         <v>3</v>
       </c>
-      <c r="J39" s="230">
+      <c r="J39" s="157">
         <v>3</v>
       </c>
-      <c r="K39" s="216">
+      <c r="K39" s="146">
         <v>3</v>
       </c>
-      <c r="L39" s="231">
+      <c r="L39" s="158">
         <v>3</v>
       </c>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="222">
+      <c r="P39" s="119"/>
+      <c r="Q39" s="149">
         <v>3</v>
       </c>
-      <c r="R39" s="209">
+      <c r="R39" s="142">
         <v>3</v>
       </c>
-      <c r="S39" s="223">
+      <c r="S39" s="150">
         <v>3</v>
       </c>
       <c r="V39" s="1"/>
@@ -4006,34 +4018,34 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
-      <c r="E40" s="201">
+      <c r="E40" s="134">
         <v>4</v>
       </c>
-      <c r="F40" s="205">
+      <c r="F40" s="138">
         <v>4</v>
       </c>
-      <c r="G40" s="203">
+      <c r="G40" s="136">
         <v>4</v>
       </c>
-      <c r="J40" s="228">
+      <c r="J40" s="155">
         <v>4</v>
       </c>
-      <c r="K40" s="215">
+      <c r="K40" s="145">
         <v>4</v>
       </c>
-      <c r="L40" s="229">
+      <c r="L40" s="156">
         <v>4</v>
       </c>
-      <c r="P40" s="143"/>
-      <c r="Q40" s="224">
+      <c r="P40" s="119"/>
+      <c r="Q40" s="151">
         <v>4</v>
       </c>
-      <c r="R40" s="210">
+      <c r="R40" s="143">
         <v>4</v>
       </c>
-      <c r="S40" s="223">
+      <c r="S40" s="150">
         <v>4</v>
       </c>
       <c r="V40" s="1"/>
@@ -4041,34 +4053,34 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
-      <c r="E41" s="202">
+      <c r="E41" s="135">
         <v>5</v>
       </c>
-      <c r="F41" s="204">
+      <c r="F41" s="137">
         <v>5</v>
       </c>
-      <c r="G41" s="199">
+      <c r="G41" s="132">
         <v>5</v>
       </c>
-      <c r="J41" s="230">
+      <c r="J41" s="157">
         <v>5</v>
       </c>
-      <c r="K41" s="216">
+      <c r="K41" s="146">
         <v>5</v>
       </c>
-      <c r="L41" s="231">
+      <c r="L41" s="158">
         <v>5</v>
       </c>
-      <c r="P41" s="143"/>
-      <c r="Q41" s="222">
+      <c r="P41" s="119"/>
+      <c r="Q41" s="149">
         <v>5</v>
       </c>
-      <c r="R41" s="209">
+      <c r="R41" s="142">
         <v>5</v>
       </c>
-      <c r="S41" s="223">
+      <c r="S41" s="150">
         <v>5</v>
       </c>
       <c r="V41" s="1"/>
@@ -4076,111 +4088,93 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D42" s="97"/>
-      <c r="E42" s="202">
+      <c r="E42" s="135">
         <v>6</v>
       </c>
-      <c r="F42" s="205">
+      <c r="F42" s="138">
         <v>4</v>
       </c>
-      <c r="G42" s="203">
+      <c r="G42" s="136">
         <v>6</v>
       </c>
-      <c r="J42" s="230">
+      <c r="J42" s="157">
         <v>6</v>
       </c>
-      <c r="K42" s="216">
+      <c r="K42" s="146">
         <v>4</v>
       </c>
-      <c r="L42" s="231">
+      <c r="L42" s="158">
         <v>6</v>
       </c>
-      <c r="P42" s="143"/>
-      <c r="Q42" s="224">
+      <c r="P42" s="119"/>
+      <c r="Q42" s="151">
         <v>6</v>
       </c>
-      <c r="R42" s="210">
+      <c r="R42" s="143">
         <v>6</v>
       </c>
-      <c r="S42" s="223">
+      <c r="S42" s="150">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D43" s="97"/>
-      <c r="E43" s="206">
+      <c r="E43" s="139">
         <v>7</v>
       </c>
-      <c r="F43" s="207">
+      <c r="F43" s="140">
         <v>7</v>
       </c>
-      <c r="G43" s="208">
+      <c r="G43" s="141">
         <v>7</v>
       </c>
-      <c r="J43" s="232">
+      <c r="J43" s="159">
         <v>7</v>
       </c>
-      <c r="K43" s="233">
+      <c r="K43" s="160">
         <v>7</v>
       </c>
-      <c r="L43" s="234">
+      <c r="L43" s="161">
         <v>7</v>
       </c>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="235">
+      <c r="P43" s="119"/>
+      <c r="Q43" s="162">
         <v>7</v>
       </c>
-      <c r="R43" s="236">
+      <c r="R43" s="163">
         <v>7</v>
       </c>
-      <c r="S43" s="237">
+      <c r="S43" s="164">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D44" s="97"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="97"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="97"/>
-      <c r="H45" s="158"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H45" s="122"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M26:N26"/>
@@ -4193,17 +4187,35 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/01 - Persistance des données/1 - Concevoir une base de données/Exercices/9.3 - Gestion bibliotheque.xlsx
+++ b/01 - Persistance des données/1 - Concevoir une base de données/Exercices/9.3 - Gestion bibliotheque.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-07\Reference\01 - Persistance des données\1 - Concevoir une base de données\Exercices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-07-04\Repo_CDA\01 - Persistance des données\1 - Concevoir une base de données\2 - Exercice Entité Relation\7 - Bibliothèque\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jeux de données" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,65 +24,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="160">
-  <si>
-    <t>CategorieProfessionnelle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>libelle</t>
-  </si>
-  <si>
     <t>Abonnes</t>
   </si>
   <si>
     <t>idAbonne</t>
   </si>
   <si>
-    <t>nomAbonne</t>
-  </si>
-  <si>
-    <t>adresseAbonne</t>
-  </si>
-  <si>
-    <t>telephoneAbonne</t>
-  </si>
-  <si>
-    <t>dateAdhesion</t>
-  </si>
-  <si>
-    <t>dateNaissance</t>
-  </si>
-  <si>
-    <t>Emprunt</t>
-  </si>
-  <si>
     <t>idLivre</t>
   </si>
   <si>
-    <t>datePret</t>
-  </si>
-  <si>
-    <t>idEtat</t>
-  </si>
-  <si>
-    <t>libelleEtat</t>
-  </si>
-  <si>
     <t>Livres</t>
   </si>
   <si>
-    <t>idLivres</t>
-  </si>
-  <si>
     <t>codeRayon</t>
   </si>
   <si>
-    <t>titre</t>
-  </si>
-  <si>
     <t>idUsure</t>
   </si>
   <si>
@@ -95,9 +56,6 @@
     <t>codeCatalogue</t>
   </si>
   <si>
-    <t>Edition</t>
-  </si>
-  <si>
     <t>idEditeur</t>
   </si>
   <si>
@@ -107,12 +65,6 @@
     <t>nomEditeur</t>
   </si>
   <si>
-    <t>idEmprunt</t>
-  </si>
-  <si>
-    <t>idEdition</t>
-  </si>
-  <si>
     <t>idGenre</t>
   </si>
   <si>
@@ -125,18 +77,12 @@
     <t>idMotCle</t>
   </si>
   <si>
-    <t>MotsCle</t>
-  </si>
-  <si>
     <t>libelleMotCle</t>
   </si>
   <si>
     <t>idAuteur</t>
   </si>
   <si>
-    <t>Auteur</t>
-  </si>
-  <si>
     <t>nomAuteur</t>
   </si>
   <si>
@@ -407,36 +353,6 @@
     <t>13/08/2012</t>
   </si>
   <si>
-    <t>dateRetourEff</t>
-  </si>
-  <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>idReservation</t>
-  </si>
-  <si>
-    <t>idEtatRes</t>
-  </si>
-  <si>
-    <t>EtatsReservation</t>
-  </si>
-  <si>
-    <t>dateDemandeRes</t>
-  </si>
-  <si>
-    <t>dateDebutRes</t>
-  </si>
-  <si>
-    <t>idCategPro</t>
-  </si>
-  <si>
-    <t>idTheme</t>
-  </si>
-  <si>
-    <t>nomTheme</t>
-  </si>
-  <si>
     <t>Themes</t>
   </si>
   <si>
@@ -446,12 +362,6 @@
     <t>idExemplaire</t>
   </si>
   <si>
-    <t>dateAquisition</t>
-  </si>
-  <si>
-    <t>Disponibilité</t>
-  </si>
-  <si>
     <t>Bon état</t>
   </si>
   <si>
@@ -485,15 +395,9 @@
     <t>Intelligence artificielle</t>
   </si>
   <si>
-    <t>idDefinition</t>
-  </si>
-  <si>
     <t>Definitions</t>
   </si>
   <si>
-    <t>idComposition</t>
-  </si>
-  <si>
     <t>Compositions</t>
   </si>
   <si>
@@ -504,6 +408,105 @@
   </si>
   <si>
     <t>idMotcle</t>
+  </si>
+  <si>
+    <t>CategoriesProfessionnelles</t>
+  </si>
+  <si>
+    <t>Auteurs</t>
+  </si>
+  <si>
+    <t>MotsCles</t>
+  </si>
+  <si>
+    <t>EmpruntExemplaires</t>
+  </si>
+  <si>
+    <t>Reservations</t>
+  </si>
+  <si>
+    <t>libelleEtatReserve</t>
+  </si>
+  <si>
+    <t>EtatsReserves</t>
+  </si>
+  <si>
+    <t>idEtatReserve</t>
+  </si>
+  <si>
+    <t>MatriculeAbonne</t>
+  </si>
+  <si>
+    <t>AdresseAbonne</t>
+  </si>
+  <si>
+    <t>NomAbonne</t>
+  </si>
+  <si>
+    <t>TelephoneAbonne</t>
+  </si>
+  <si>
+    <t>DateAdhesion</t>
+  </si>
+  <si>
+    <t>DateNaissance</t>
+  </si>
+  <si>
+    <t>idCategorieProfessionnelle</t>
+  </si>
+  <si>
+    <t>DateRetourEffective</t>
+  </si>
+  <si>
+    <t>DateEmprunt</t>
+  </si>
+  <si>
+    <t>idEmpruntExemplaires</t>
+  </si>
+  <si>
+    <t>IdExemplaire</t>
+  </si>
+  <si>
+    <t>IdEtatReserve</t>
+  </si>
+  <si>
+    <t>DateDebutReservation</t>
+  </si>
+  <si>
+    <t>IdReservations</t>
+  </si>
+  <si>
+    <t>IdLivre</t>
+  </si>
+  <si>
+    <t>IdAbonne</t>
+  </si>
+  <si>
+    <t>DateDemandeReservation</t>
+  </si>
+  <si>
+    <t>TitreLivre</t>
+  </si>
+  <si>
+    <t>IdTheme</t>
+  </si>
+  <si>
+    <t>NomTheme</t>
+  </si>
+  <si>
+    <t>IdDefinitions</t>
+  </si>
+  <si>
+    <t>IdGenre</t>
+  </si>
+  <si>
+    <t>IdCompositions</t>
+  </si>
+  <si>
+    <t>dateAcquisition</t>
+  </si>
+  <si>
+    <t>Disponibilite</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1155,6 +1158,61 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1168,7 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,9 +1357,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,9 +1372,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,9 +1390,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,9 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,9 +1484,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,9 +1557,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,6 +1694,66 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,202 +1781,154 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2174,36 +2226,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:BZ63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="12" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2212,2018 +2264,1894 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="227" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:78" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="217" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="219" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="220"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="225" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="228"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AS2" s="124"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+    </row>
+    <row r="3" spans="1:78" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="92"/>
+      <c r="B3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="229" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="199" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="97"/>
-      <c r="B3" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>2</v>
+      <c r="C3" s="99" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="205" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="X3" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="102">
+      <c r="T3" s="206"/>
+      <c r="AJ3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AS3" s="4"/>
+      <c r="BH3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BW3" s="4"/>
+    </row>
+    <row r="4" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
+      <c r="B4" s="97">
         <v>1</v>
       </c>
-      <c r="C4" s="103" t="s">
-        <v>76</v>
+      <c r="C4" s="98" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>38</v>
+      <c r="F4" s="164">
+        <v>28941</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="16">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16">
         <v>36372752</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="J4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="17">
+        <v>39</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="17">
         <v>6</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="18">
+      <c r="M4" s="9"/>
+      <c r="N4" s="44">
         <v>1</v>
       </c>
-      <c r="N4" s="113">
+      <c r="O4" s="45">
         <v>1</v>
       </c>
-      <c r="O4" s="19">
+      <c r="P4" s="236">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="207">
+        <v>347233</v>
+      </c>
+      <c r="T4" s="208"/>
+      <c r="AG4" s="92"/>
+      <c r="AJ4" s="4"/>
+      <c r="AN4" s="1"/>
+      <c r="AS4" s="4"/>
+      <c r="BC4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+    </row>
+    <row r="5" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93">
         <v>2</v>
       </c>
-      <c r="P4" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="20">
-        <v>1</v>
-      </c>
-      <c r="T4" s="21">
-        <v>2</v>
-      </c>
-      <c r="U4" s="21">
-        <v>3</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="X4" s="152">
-        <v>37592</v>
-      </c>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98">
-        <v>2</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>77</v>
+      <c r="C5" s="94" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="23">
         <v>2</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
+      <c r="F5" s="164">
+        <v>16111</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="24">
+        <v>21</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="24">
         <v>74344564</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="J5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="25">
+        <v>40</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="25">
         <v>5</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="26">
+      <c r="M5" s="9"/>
+      <c r="N5" s="50">
         <v>2</v>
       </c>
-      <c r="N5" s="114">
+      <c r="O5" s="51">
         <v>1</v>
       </c>
-      <c r="O5" s="27">
+      <c r="P5" s="165">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="209">
+        <v>384239</v>
+      </c>
+      <c r="T5" s="210"/>
+      <c r="AG5" s="92"/>
+      <c r="AJ5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BZ5" s="3"/>
+    </row>
+    <row r="6" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
+      <c r="B6" s="93">
         <v>3</v>
       </c>
-      <c r="P5" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="29">
-        <v>2</v>
-      </c>
-      <c r="T5" s="30">
-        <v>4</v>
-      </c>
-      <c r="U5" s="30">
-        <v>5</v>
-      </c>
-      <c r="V5" s="30">
-        <v>3</v>
-      </c>
-      <c r="W5" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="X5" s="152">
-        <v>41246</v>
-      </c>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98">
-        <v>3</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>78</v>
+      <c r="C6" s="94" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="23">
         <v>3</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>40</v>
+      <c r="F6" s="164">
+        <v>73677</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="24">
+        <v>22</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="24">
         <v>48457499</v>
       </c>
-      <c r="I6" s="94">
+      <c r="J6" s="89">
         <v>32940</v>
       </c>
-      <c r="J6" s="94">
+      <c r="K6" s="89">
         <v>29288</v>
       </c>
-      <c r="K6" s="25">
+      <c r="L6" s="25">
         <v>2</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="18">
+      <c r="M6" s="9"/>
+      <c r="N6" s="50">
         <v>3</v>
       </c>
-      <c r="N6" s="114">
+      <c r="O6" s="45">
+        <v>3</v>
+      </c>
+      <c r="P6" s="165">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="209">
+        <v>454834</v>
+      </c>
+      <c r="T6" s="210"/>
+      <c r="AG6" s="92"/>
+      <c r="AJ6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BV6" s="113"/>
+      <c r="BZ6" s="3"/>
+    </row>
+    <row r="7" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93">
         <v>4</v>
       </c>
-      <c r="O6" s="27">
-        <v>6</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="29">
-        <v>3</v>
-      </c>
-      <c r="T6" s="30">
-        <v>5</v>
-      </c>
-      <c r="U6" s="30">
-        <v>6</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" s="120">
-        <v>37655</v>
-      </c>
-      <c r="X6" s="152">
-        <v>37656</v>
-      </c>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98">
-        <v>4</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>79</v>
+      <c r="C7" s="94" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="23">
         <v>4</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>41</v>
+      <c r="F7" s="164">
+        <v>87418</v>
       </c>
       <c r="G7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="24">
+        <v>49534733</v>
+      </c>
+      <c r="J7" s="89">
+        <v>37017</v>
+      </c>
+      <c r="K7" s="89">
+        <v>32634</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="50">
+        <v>4</v>
+      </c>
+      <c r="O7" s="51">
+        <v>2</v>
+      </c>
+      <c r="P7" s="165">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="24">
-        <v>49534733</v>
-      </c>
-      <c r="I7" s="94">
-        <v>37017</v>
-      </c>
-      <c r="J7" s="94">
-        <v>32634</v>
-      </c>
-      <c r="K7" s="25">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="26">
-        <v>4</v>
-      </c>
-      <c r="N7" s="27">
+      <c r="S7" s="209">
+        <v>439058</v>
+      </c>
+      <c r="T7" s="210"/>
+      <c r="AG7" s="92"/>
+      <c r="AJ7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BV7" s="113"/>
+    </row>
+    <row r="8" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93">
         <v>5</v>
       </c>
-      <c r="O7" s="19">
-        <v>2</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="29">
-        <v>4</v>
-      </c>
-      <c r="T7" s="30">
-        <v>5</v>
-      </c>
-      <c r="U7" s="30">
-        <v>7</v>
-      </c>
-      <c r="V7" s="30">
-        <v>2</v>
-      </c>
-      <c r="W7" s="120">
-        <v>38445</v>
-      </c>
-      <c r="X7" s="152">
-        <v>38456</v>
-      </c>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98">
-        <v>5</v>
-      </c>
-      <c r="C8" s="99" t="s">
-        <v>80</v>
+      <c r="C8" s="94" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="23">
         <v>5</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>42</v>
+      <c r="F8" s="164">
+        <v>75187</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="24">
+        <v>24</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="24">
         <v>48564547</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>59</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="25">
+        <v>41</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="25">
         <v>1</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="18">
+      <c r="M8" s="9"/>
+      <c r="N8" s="50">
         <v>5</v>
       </c>
-      <c r="N8" s="27">
+      <c r="O8" s="45">
         <v>6</v>
       </c>
-      <c r="O8" s="27">
+      <c r="P8" s="165">
         <v>5</v>
       </c>
-      <c r="P8" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="29">
-        <v>5</v>
-      </c>
-      <c r="T8" s="30">
-        <v>3</v>
-      </c>
-      <c r="U8" s="30">
-        <v>7</v>
-      </c>
-      <c r="V8" s="30">
-        <v>2</v>
-      </c>
-      <c r="W8" s="120">
-        <v>37330</v>
-      </c>
-      <c r="X8" s="152">
-        <v>37336</v>
-      </c>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98">
+      <c r="Q8" s="166"/>
+      <c r="R8" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="209">
+        <v>588540</v>
+      </c>
+      <c r="T8" s="210"/>
+      <c r="AG8" s="92"/>
+      <c r="AJ8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BV8" s="113"/>
+    </row>
+    <row r="9" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93">
         <v>6</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>81</v>
+      <c r="C9" s="94" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="23">
         <v>6</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>43</v>
+      <c r="F9" s="164">
+        <v>22433</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="24">
+        <v>25</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="24">
         <v>23344567</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>60</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="25">
+        <v>42</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="25">
         <v>7</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="26">
+      <c r="M9" s="9"/>
+      <c r="N9" s="50">
         <v>6</v>
       </c>
-      <c r="N9" s="27">
-        <v>6</v>
-      </c>
-      <c r="O9" s="27">
-        <v>3</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="29">
-        <v>6</v>
-      </c>
-      <c r="T9" s="30">
-        <v>1</v>
-      </c>
-      <c r="U9" s="30">
-        <v>3</v>
-      </c>
-      <c r="V9" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" s="120">
-        <v>37585</v>
-      </c>
-      <c r="X9" s="152">
-        <v>37597</v>
-      </c>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="97"/>
-      <c r="B10" s="100">
+      <c r="O9" s="51">
+        <v>5</v>
+      </c>
+      <c r="P9" s="165">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="209">
+        <v>439058</v>
+      </c>
+      <c r="T9" s="210"/>
+      <c r="AG9" s="92"/>
+      <c r="AJ9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AS9" s="92"/>
+      <c r="BC9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BV9" s="113"/>
+    </row>
+    <row r="10" spans="1:78" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="92"/>
+      <c r="B10" s="95">
         <v>7</v>
       </c>
-      <c r="C10" s="101" t="s">
-        <v>82</v>
+      <c r="C10" s="96" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="32">
         <v>7</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>44</v>
+      <c r="F10" s="164">
+        <v>25288</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="33">
+        <v>26</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="33">
         <v>14987543</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="34">
+        <v>43</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="34">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="93">
+      <c r="M10" s="4"/>
+      <c r="N10" s="56">
         <v>7</v>
       </c>
-      <c r="N10" s="35">
-        <v>3</v>
-      </c>
-      <c r="O10" s="35">
-        <v>2</v>
-      </c>
-      <c r="P10" s="118">
-        <v>32940</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="37">
+      <c r="O10" s="122">
         <v>7</v>
       </c>
-      <c r="T10" s="38">
-        <v>5</v>
-      </c>
-      <c r="U10" s="38">
-        <v>2</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="W10" s="153">
-        <v>37592</v>
-      </c>
-      <c r="X10" s="154">
-        <v>37598</v>
-      </c>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="167">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="211">
+        <v>754352</v>
+      </c>
+      <c r="T10" s="212"/>
+      <c r="AG10" s="92"/>
+      <c r="AJ10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AS10" s="92"/>
+      <c r="BC10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BV10" s="113"/>
+    </row>
+    <row r="11" spans="1:78" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="232" t="s">
+      <c r="AG11" s="92"/>
+      <c r="AJ11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AS11" s="92"/>
+      <c r="BC11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BV11" s="113"/>
+    </row>
+    <row r="12" spans="1:78" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="223" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="224"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="233"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="234" t="s">
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="171"/>
+      <c r="K12" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="178"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="215" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="216"/>
+      <c r="Q12" s="179" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="180"/>
+      <c r="S12" s="181"/>
+      <c r="AG12" s="92"/>
+      <c r="AJ12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BV12" s="113"/>
+    </row>
+    <row r="13" spans="1:78" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="92"/>
+      <c r="B13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="238" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="239"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="215" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="216"/>
-      <c r="T12" s="222" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="223"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="97"/>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="180" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="181"/>
-      <c r="I13" s="40" t="s">
+      <c r="Q13" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="180" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="181"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="V13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+      <c r="S13" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BV13" s="113"/>
+    </row>
+    <row r="14" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="20">
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="45">
+      <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="159">
         <v>1</v>
       </c>
-      <c r="G14" s="174">
+      <c r="G14" s="108">
         <v>1</v>
       </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="207">
-        <v>347233</v>
-      </c>
-      <c r="K14" s="208"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="47">
+      <c r="H14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="48">
         <v>1</v>
       </c>
-      <c r="O14" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="76">
+      <c r="L14" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="69">
         <v>1</v>
       </c>
-      <c r="R14" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="T14" s="49">
+      <c r="O14" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="149">
         <v>1</v>
       </c>
-      <c r="U14" s="50">
+      <c r="R14" s="139">
         <v>1</v>
       </c>
-      <c r="V14" s="51">
-        <v>2</v>
-      </c>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
+      <c r="S14" s="150">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+    </row>
+    <row r="15" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="29">
         <v>2</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="52">
+      <c r="E15" s="26">
         <v>2</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="160">
+        <v>2</v>
+      </c>
+      <c r="G15" s="109">
         <v>1</v>
       </c>
-      <c r="G15" s="176">
+      <c r="H15" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="54">
         <v>2</v>
       </c>
-      <c r="H15" s="177"/>
-      <c r="I15" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="209">
-        <v>384239</v>
-      </c>
-      <c r="K15" s="210"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="54">
+      <c r="L15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="76">
         <v>2</v>
       </c>
-      <c r="O15" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="83">
+      <c r="O15" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="151">
         <v>2</v>
       </c>
-      <c r="R15" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="T15" s="56">
+      <c r="R15" s="140">
         <v>2</v>
       </c>
-      <c r="U15" s="57">
+      <c r="S15" s="152">
         <v>2</v>
       </c>
-      <c r="V15" s="58">
-        <v>3</v>
-      </c>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
+    </row>
+    <row r="16" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="29">
         <v>3</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="52">
+      <c r="E16" s="18">
         <v>3</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="159">
+        <v>6</v>
+      </c>
+      <c r="G16" s="109">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="54">
         <v>3</v>
       </c>
-      <c r="G16" s="176">
+      <c r="L16" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="69">
         <v>3</v>
       </c>
-      <c r="H16" s="177"/>
-      <c r="I16" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="209">
-        <v>454834</v>
-      </c>
-      <c r="K16" s="210"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="47">
+      <c r="O16" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="151">
         <v>3</v>
       </c>
-      <c r="O16" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="76">
+      <c r="R16" s="140">
         <v>3</v>
       </c>
-      <c r="R16" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="T16" s="49">
+      <c r="S16" s="152">
         <v>3</v>
       </c>
-      <c r="U16" s="57">
-        <v>3</v>
-      </c>
-      <c r="V16" s="58">
-        <v>1</v>
-      </c>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="29">
         <v>4</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="52">
+      <c r="E17" s="26">
         <v>4</v>
       </c>
-      <c r="F17" s="53">
-        <v>2</v>
-      </c>
-      <c r="G17" s="176">
+      <c r="F17" s="161">
+        <v>3</v>
+      </c>
+      <c r="G17" s="27">
+        <v>5</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="54">
         <v>4</v>
       </c>
-      <c r="H17" s="177"/>
-      <c r="I17" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="209">
-        <v>439058</v>
-      </c>
-      <c r="K17" s="210"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="54">
+      <c r="L17" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="76">
         <v>4</v>
       </c>
-      <c r="O17" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="83">
+      <c r="O17" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="149">
         <v>4</v>
       </c>
-      <c r="R17" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="T17" s="56">
+      <c r="R17" s="139">
         <v>4</v>
       </c>
-      <c r="U17" s="57">
+      <c r="S17" s="150">
         <v>4</v>
       </c>
-      <c r="V17" s="58">
-        <v>5</v>
-      </c>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
       <c r="B18" s="29">
         <v>5</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="52">
+      <c r="E18" s="18">
         <v>5</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="162">
+        <v>2</v>
+      </c>
+      <c r="G18" s="27">
         <v>6</v>
       </c>
-      <c r="G18" s="176">
+      <c r="H18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="54">
         <v>5</v>
       </c>
-      <c r="H18" s="177"/>
-      <c r="I18" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="209">
-        <v>588540</v>
-      </c>
-      <c r="K18" s="210"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="47">
+      <c r="L18" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="69">
         <v>5</v>
       </c>
-      <c r="O18" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="76">
+      <c r="O18" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="151">
         <v>5</v>
       </c>
-      <c r="R18" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="T18" s="49">
+      <c r="R18" s="140">
         <v>5</v>
       </c>
-      <c r="U18" s="57">
-        <v>4</v>
-      </c>
-      <c r="V18" s="58">
-        <v>6</v>
-      </c>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
+      <c r="S18" s="152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="29">
         <v>6</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="52">
+      <c r="E19" s="26">
         <v>6</v>
       </c>
-      <c r="F19" s="53">
-        <v>5</v>
-      </c>
-      <c r="G19" s="176">
+      <c r="F19" s="161">
         <v>4</v>
       </c>
-      <c r="H19" s="177"/>
-      <c r="I19" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="209">
-        <v>439058</v>
-      </c>
-      <c r="K19" s="210"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="54">
+      <c r="G19" s="27">
         <v>6</v>
       </c>
-      <c r="O19" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="83">
+      <c r="H19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="54">
         <v>6</v>
       </c>
-      <c r="R19" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="T19" s="56">
+      <c r="L19" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="76">
         <v>6</v>
       </c>
-      <c r="U19" s="57">
-        <v>5</v>
-      </c>
-      <c r="V19" s="58">
-        <v>7</v>
-      </c>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="97"/>
+      <c r="O19" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="151">
+        <v>6</v>
+      </c>
+      <c r="R19" s="140">
+        <v>4</v>
+      </c>
+      <c r="S19" s="152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92"/>
       <c r="B20" s="37">
         <v>7</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="59">
+      <c r="E20" s="88">
         <v>7</v>
       </c>
-      <c r="F20" s="128">
+      <c r="F20" s="163">
+        <v>5</v>
+      </c>
+      <c r="G20" s="35">
+        <v>3</v>
+      </c>
+      <c r="H20" s="112">
+        <v>32940</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="54">
         <v>7</v>
       </c>
-      <c r="G20" s="178">
-        <v>6</v>
-      </c>
-      <c r="H20" s="179"/>
-      <c r="I20" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="211">
-        <v>754352</v>
-      </c>
-      <c r="K20" s="212"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="92">
+      <c r="L20" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="69">
         <v>7</v>
       </c>
-      <c r="O20" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="76">
+      <c r="O20" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="153">
         <v>7</v>
       </c>
-      <c r="R20" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="T20" s="91">
+      <c r="R20" s="154">
         <v>7</v>
       </c>
-      <c r="U20" s="61">
-        <v>6</v>
-      </c>
-      <c r="V20" s="62">
-        <v>6</v>
+      <c r="S20" s="155">
+        <v>7</v>
       </c>
       <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="57">
+        <v>8</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="89">
+      <c r="N21" s="83">
         <v>8</v>
       </c>
-      <c r="R21" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="O21" s="84" t="s">
+        <v>57</v>
+      </c>
       <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="217" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="218"/>
-      <c r="F23" s="213" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="214"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="225" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="226"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="V23" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="214"/>
+      <c r="E23" s="231" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="232"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="233"/>
+      <c r="L23" s="200" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="201"/>
+      <c r="N23" s="202"/>
+      <c r="P23" s="185" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="97"/>
-      <c r="B24" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="202" t="s">
-        <v>137</v>
-      </c>
-      <c r="N24" s="203"/>
-      <c r="O24" s="204"/>
-      <c r="Q24" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="70"/>
-    </row>
-    <row r="25" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="97"/>
-      <c r="B25" s="109">
+    </row>
+    <row r="24" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="92"/>
+      <c r="B24" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="195"/>
+      <c r="N24" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="R24" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="W24" s="65"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" s="104">
         <v>1</v>
       </c>
-      <c r="C25" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="49">
+      <c r="C25" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="20">
         <v>1</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="73">
+      <c r="F25" s="21">
+        <v>2</v>
+      </c>
+      <c r="G25" s="21">
+        <v>3</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="146">
+        <v>37592</v>
+      </c>
+      <c r="L25" s="203">
         <v>1</v>
       </c>
-      <c r="J25" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="192" t="s">
-        <v>135</v>
-      </c>
-      <c r="N25" s="193"/>
-      <c r="O25" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="R25" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="S25" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="T25" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="U25" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="V25" s="182" t="s">
-        <v>11</v>
-      </c>
-      <c r="W25" s="183"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="70"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="105">
+      <c r="M25" s="204"/>
+      <c r="N25" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="128">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="131">
+        <v>1</v>
+      </c>
+      <c r="R25" s="126">
+        <v>1</v>
+      </c>
+      <c r="W25" s="65"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="100">
         <v>2</v>
       </c>
-      <c r="C26" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="56">
+      <c r="C26" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="29">
         <v>2</v>
       </c>
-      <c r="G26" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="80">
+      <c r="F26" s="30">
+        <v>4</v>
+      </c>
+      <c r="G26" s="30">
+        <v>5</v>
+      </c>
+      <c r="H26" s="30">
+        <v>3</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="146">
+        <v>41246</v>
+      </c>
+      <c r="L26" s="175">
         <v>2</v>
       </c>
-      <c r="J26" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="205">
+      <c r="M26" s="176"/>
+      <c r="N26" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" s="129">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="132">
+        <v>2</v>
+      </c>
+      <c r="R26" s="130">
+        <v>2</v>
+      </c>
+      <c r="W26" s="65"/>
+      <c r="X26" s="66"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="100">
+        <v>3</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="29">
+        <v>3</v>
+      </c>
+      <c r="F27" s="30">
+        <v>5</v>
+      </c>
+      <c r="G27" s="30">
+        <v>6</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="114">
+        <v>37655</v>
+      </c>
+      <c r="J27" s="146">
+        <v>37656</v>
+      </c>
+      <c r="L27" s="175">
+        <v>3</v>
+      </c>
+      <c r="M27" s="176"/>
+      <c r="N27" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="129">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="131">
+        <v>3</v>
+      </c>
+      <c r="R27" s="126">
+        <v>3</v>
+      </c>
+      <c r="W27" s="65"/>
+      <c r="X27" s="66"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="100">
+        <v>4</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="29">
+        <v>4</v>
+      </c>
+      <c r="F28" s="30">
+        <v>5</v>
+      </c>
+      <c r="G28" s="30">
+        <v>7</v>
+      </c>
+      <c r="H28" s="30">
+        <v>2</v>
+      </c>
+      <c r="I28" s="114">
+        <v>38445</v>
+      </c>
+      <c r="J28" s="146">
+        <v>38456</v>
+      </c>
+      <c r="L28" s="175">
+        <v>4</v>
+      </c>
+      <c r="M28" s="176"/>
+      <c r="N28" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="132">
+        <v>4</v>
+      </c>
+      <c r="R28" s="130">
+        <v>4</v>
+      </c>
+      <c r="W28" s="65"/>
+      <c r="X28" s="66"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
+      <c r="B29" s="100">
+        <v>5</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="29">
+        <v>5</v>
+      </c>
+      <c r="F29" s="30">
+        <v>3</v>
+      </c>
+      <c r="G29" s="30">
+        <v>7</v>
+      </c>
+      <c r="H29" s="30">
+        <v>2</v>
+      </c>
+      <c r="I29" s="114">
+        <v>37330</v>
+      </c>
+      <c r="J29" s="146">
+        <v>37336</v>
+      </c>
+      <c r="L29" s="175">
+        <v>5</v>
+      </c>
+      <c r="M29" s="176"/>
+      <c r="N29" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="129">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="131">
+        <v>5</v>
+      </c>
+      <c r="R29" s="126">
+        <v>5</v>
+      </c>
+      <c r="W29" s="65"/>
+      <c r="X29" s="66"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
+      <c r="B30" s="100">
+        <v>6</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="29">
+        <v>6</v>
+      </c>
+      <c r="F30" s="30">
         <v>1</v>
       </c>
-      <c r="N26" s="206"/>
-      <c r="O26" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="71">
-        <v>1</v>
-      </c>
-      <c r="R26" s="126">
-        <v>21504</v>
-      </c>
-      <c r="S26" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" s="72">
-        <v>83426</v>
-      </c>
-      <c r="U26" s="72">
+      <c r="G30" s="30">
+        <v>3</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="114">
+        <v>37585</v>
+      </c>
+      <c r="J30" s="146">
+        <v>37597</v>
+      </c>
+      <c r="L30" s="175">
+        <v>6</v>
+      </c>
+      <c r="M30" s="176"/>
+      <c r="N30" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="129">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="132">
+        <v>4</v>
+      </c>
+      <c r="R30" s="130">
+        <v>6</v>
+      </c>
+      <c r="W30" s="65"/>
+      <c r="X30" s="66"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
+      <c r="B31" s="100">
+        <v>7</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="37">
+        <v>7</v>
+      </c>
+      <c r="F31" s="38">
         <v>5</v>
       </c>
-      <c r="V26" s="184">
-        <v>1</v>
-      </c>
-      <c r="W26" s="185"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="70"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
-      <c r="B27" s="105">
-        <v>3</v>
-      </c>
-      <c r="C27" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="56">
-        <v>3</v>
-      </c>
-      <c r="G27" s="58" t="s">
+      <c r="G31" s="38">
+        <v>2</v>
+      </c>
+      <c r="H31" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="73">
-        <v>3</v>
-      </c>
-      <c r="J27" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="197">
-        <v>2</v>
-      </c>
-      <c r="N27" s="198"/>
-      <c r="O27" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="78">
-        <v>2</v>
-      </c>
-      <c r="R27" s="123">
-        <v>20803</v>
-      </c>
-      <c r="S27" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27" s="79">
-        <v>50654</v>
-      </c>
-      <c r="U27" s="79">
-        <v>5</v>
-      </c>
-      <c r="V27" s="186">
-        <v>2</v>
-      </c>
-      <c r="W27" s="187"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="70"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
-      <c r="B28" s="105">
-        <v>4</v>
-      </c>
-      <c r="C28" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="56">
-        <v>4</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="80">
-        <v>4</v>
-      </c>
-      <c r="J28" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="197">
-        <v>3</v>
-      </c>
-      <c r="N28" s="198"/>
-      <c r="O28" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q28" s="78">
-        <v>3</v>
-      </c>
-      <c r="R28" s="123">
-        <v>33206</v>
-      </c>
-      <c r="S28" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="T28" s="79">
-        <v>43957</v>
-      </c>
-      <c r="U28" s="79">
-        <v>5</v>
-      </c>
-      <c r="V28" s="186">
-        <v>3</v>
-      </c>
-      <c r="W28" s="187"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="70"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
-      <c r="B29" s="105">
-        <v>5</v>
-      </c>
-      <c r="C29" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="56">
-        <v>5</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="73">
-        <v>5</v>
-      </c>
-      <c r="J29" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="197">
-        <v>4</v>
-      </c>
-      <c r="N29" s="198"/>
-      <c r="O29" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" s="78">
-        <v>4</v>
-      </c>
-      <c r="R29" s="123">
-        <v>29288</v>
-      </c>
-      <c r="S29" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="T29" s="79">
-        <v>47342</v>
-      </c>
-      <c r="U29" s="79">
+      <c r="I31" s="147">
+        <v>37592</v>
+      </c>
+      <c r="J31" s="148">
+        <v>37598</v>
+      </c>
+      <c r="L31" s="175">
         <v>7</v>
       </c>
-      <c r="V29" s="186">
-        <v>4</v>
-      </c>
-      <c r="W29" s="187"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="70"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
-      <c r="B30" s="105">
-        <v>6</v>
-      </c>
-      <c r="C30" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="56">
-        <v>6</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="80">
-        <v>6</v>
-      </c>
-      <c r="J30" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="197">
-        <v>5</v>
-      </c>
-      <c r="N30" s="198"/>
-      <c r="O30" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="78">
-        <v>5</v>
-      </c>
-      <c r="R30" s="123">
-        <v>20319</v>
-      </c>
-      <c r="S30" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" s="79">
-        <v>39428</v>
-      </c>
-      <c r="U30" s="79">
-        <v>5</v>
-      </c>
-      <c r="V30" s="186">
-        <v>5</v>
-      </c>
-      <c r="W30" s="187"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="70"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
-      <c r="B31" s="105">
+      <c r="M31" s="176"/>
+      <c r="N31" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="133">
         <v>7</v>
       </c>
-      <c r="C31" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="56">
+      <c r="Q31" s="134">
         <v>7</v>
       </c>
-      <c r="G31" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="73">
+      <c r="R31" s="135">
         <v>7</v>
       </c>
-      <c r="J31" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="197">
-        <v>6</v>
-      </c>
-      <c r="N31" s="198"/>
-      <c r="O31" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" s="78">
-        <v>6</v>
-      </c>
-      <c r="R31" s="123">
-        <v>31494</v>
-      </c>
-      <c r="S31" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31" s="79">
-        <v>30492</v>
-      </c>
-      <c r="U31" s="79">
-        <v>2</v>
-      </c>
-      <c r="V31" s="186">
-        <v>6</v>
-      </c>
-      <c r="W31" s="187"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="70"/>
-    </row>
-    <row r="32" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="97"/>
-      <c r="B32" s="107">
+      <c r="W31" s="65"/>
+      <c r="X31" s="66"/>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
+      <c r="B32" s="102">
         <v>8</v>
       </c>
-      <c r="C32" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="60">
+      <c r="C32" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="198">
         <v>8</v>
       </c>
-      <c r="G32" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="87">
-        <v>8</v>
-      </c>
-      <c r="J32" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="197">
-        <v>7</v>
-      </c>
-      <c r="N32" s="198"/>
-      <c r="O32" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q32" s="85">
-        <v>7</v>
-      </c>
-      <c r="R32" s="125">
-        <v>21504</v>
-      </c>
-      <c r="S32" s="86" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" s="86">
-        <v>13439</v>
-      </c>
-      <c r="U32" s="86">
-        <v>3</v>
-      </c>
-      <c r="V32" s="188">
-        <v>7</v>
-      </c>
-      <c r="W32" s="189"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="70"/>
-    </row>
-    <row r="33" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="97"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="W32" s="65"/>
+      <c r="X32" s="66"/>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="92"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="190">
+      <c r="W33" s="65"/>
+      <c r="X33" s="66"/>
+    </row>
+    <row r="34" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="230"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="234" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="235"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="172" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="182" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="184"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="191"/>
-      <c r="O33" s="129" t="s">
-        <v>152</v>
-      </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="70"/>
-    </row>
-    <row r="34" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="130"/>
-      <c r="E35" s="171" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="172"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="1"/>
-      <c r="J35" s="165" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="166"/>
-      <c r="L35" s="167"/>
-      <c r="Q35" s="168" t="s">
-        <v>157</v>
-      </c>
-      <c r="R35" s="169"/>
-      <c r="S35" s="170"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="E35" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="J35" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="188" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="189"/>
+      <c r="P35" s="142" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="141" t="s">
+        <v>127</v>
+      </c>
       <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="4"/>
-      <c r="E36" s="131" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="133" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="131" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="144" t="s">
-        <v>155</v>
-      </c>
-      <c r="K36" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="R36" s="147" t="s">
-        <v>11</v>
-      </c>
-      <c r="S36" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="46">
+        <v>1</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="72">
+        <v>1</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="67">
+        <v>1</v>
+      </c>
+      <c r="I36" s="120">
+        <v>21504</v>
+      </c>
+      <c r="J36" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="68">
+        <v>83426</v>
+      </c>
+      <c r="L36" s="68">
+        <v>5</v>
+      </c>
+      <c r="M36" s="190">
+        <v>1</v>
+      </c>
+      <c r="N36" s="191"/>
+      <c r="P36" s="143">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="136">
+        <v>1</v>
+      </c>
+      <c r="R36" s="144">
+        <v>1</v>
+      </c>
       <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
-      <c r="E37" s="134">
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="52">
+        <v>2</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="79">
+        <v>2</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="74">
+        <v>2</v>
+      </c>
+      <c r="I37" s="117">
+        <v>20803</v>
+      </c>
+      <c r="J37" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="75">
+        <v>50654</v>
+      </c>
+      <c r="L37" s="75">
+        <v>5</v>
+      </c>
+      <c r="M37" s="192">
+        <v>2</v>
+      </c>
+      <c r="N37" s="193"/>
+      <c r="P37" s="145">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="137">
+        <v>2</v>
+      </c>
+      <c r="R37" s="144">
+        <v>2</v>
+      </c>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="46">
+        <v>3</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="72">
+        <v>3</v>
+      </c>
+      <c r="F38" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="74">
+        <v>3</v>
+      </c>
+      <c r="I38" s="117">
+        <v>33206</v>
+      </c>
+      <c r="J38" s="75" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="137">
+      <c r="K38" s="75">
+        <v>43957</v>
+      </c>
+      <c r="L38" s="75">
+        <v>5</v>
+      </c>
+      <c r="M38" s="192">
+        <v>3</v>
+      </c>
+      <c r="N38" s="193"/>
+      <c r="P38" s="143">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="136">
+        <v>3</v>
+      </c>
+      <c r="R38" s="144">
+        <v>3</v>
+      </c>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="52">
+        <v>4</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="79">
+        <v>4</v>
+      </c>
+      <c r="F39" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="74">
+        <v>4</v>
+      </c>
+      <c r="I39" s="117">
+        <v>29288</v>
+      </c>
+      <c r="J39" s="75" t="b">
         <v>1</v>
       </c>
-      <c r="G37" s="132">
+      <c r="K39" s="75">
+        <v>47342</v>
+      </c>
+      <c r="L39" s="75">
+        <v>7</v>
+      </c>
+      <c r="M39" s="192">
+        <v>4</v>
+      </c>
+      <c r="N39" s="193"/>
+      <c r="P39" s="145">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="137">
+        <v>4</v>
+      </c>
+      <c r="R39" s="144">
+        <v>4</v>
+      </c>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="46">
+        <v>5</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="72">
+        <v>5</v>
+      </c>
+      <c r="F40" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="74">
+        <v>5</v>
+      </c>
+      <c r="I40" s="117">
+        <v>20319</v>
+      </c>
+      <c r="J40" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="75">
+        <v>39428</v>
+      </c>
+      <c r="L40" s="75">
+        <v>5</v>
+      </c>
+      <c r="M40" s="192">
+        <v>5</v>
+      </c>
+      <c r="N40" s="193"/>
+      <c r="P40" s="143">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="136">
+        <v>5</v>
+      </c>
+      <c r="R40" s="144">
+        <v>5</v>
+      </c>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="52">
+        <v>6</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="79">
+        <v>6</v>
+      </c>
+      <c r="F41" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="74">
+        <v>6</v>
+      </c>
+      <c r="I41" s="117">
+        <v>31494</v>
+      </c>
+      <c r="J41" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="75">
+        <v>30492</v>
+      </c>
+      <c r="L41" s="75">
+        <v>2</v>
+      </c>
+      <c r="M41" s="192">
+        <v>6</v>
+      </c>
+      <c r="N41" s="193"/>
+      <c r="P41" s="145">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="137">
+        <v>6</v>
+      </c>
+      <c r="R41" s="144">
+        <v>4</v>
+      </c>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="87">
+        <v>7</v>
+      </c>
+      <c r="C42" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="72">
+        <v>7</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="81">
+        <v>7</v>
+      </c>
+      <c r="I42" s="119">
+        <v>21504</v>
+      </c>
+      <c r="J42" s="82" t="b">
         <v>1</v>
       </c>
-      <c r="J37" s="155">
-        <v>1</v>
-      </c>
-      <c r="K37" s="145">
-        <v>1</v>
-      </c>
-      <c r="L37" s="156">
-        <v>1</v>
-      </c>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="149">
-        <v>1</v>
-      </c>
-      <c r="R37" s="142">
-        <v>1</v>
-      </c>
-      <c r="S37" s="150">
-        <v>1</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="4"/>
-      <c r="E38" s="135">
-        <v>2</v>
-      </c>
-      <c r="F38" s="138">
-        <v>2</v>
-      </c>
-      <c r="G38" s="136">
-        <v>2</v>
-      </c>
-      <c r="J38" s="157">
-        <v>2</v>
-      </c>
-      <c r="K38" s="146">
-        <v>2</v>
-      </c>
-      <c r="L38" s="158">
-        <v>2</v>
-      </c>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="151">
-        <v>2</v>
-      </c>
-      <c r="R38" s="143">
-        <v>2</v>
-      </c>
-      <c r="S38" s="150">
-        <v>2</v>
-      </c>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="4"/>
-      <c r="E39" s="135">
+      <c r="K42" s="82">
+        <v>13439</v>
+      </c>
+      <c r="L42" s="82">
         <v>3</v>
       </c>
-      <c r="F39" s="137">
-        <v>3</v>
-      </c>
-      <c r="G39" s="132">
-        <v>3</v>
-      </c>
-      <c r="J39" s="157">
-        <v>3</v>
-      </c>
-      <c r="K39" s="146">
-        <v>3</v>
-      </c>
-      <c r="L39" s="158">
-        <v>3</v>
-      </c>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="149">
-        <v>3</v>
-      </c>
-      <c r="R39" s="142">
-        <v>3</v>
-      </c>
-      <c r="S39" s="150">
-        <v>3</v>
-      </c>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D40" s="4"/>
-      <c r="E40" s="134">
-        <v>4</v>
-      </c>
-      <c r="F40" s="138">
-        <v>4</v>
-      </c>
-      <c r="G40" s="136">
-        <v>4</v>
-      </c>
-      <c r="J40" s="155">
-        <v>4</v>
-      </c>
-      <c r="K40" s="145">
-        <v>4</v>
-      </c>
-      <c r="L40" s="156">
-        <v>4</v>
-      </c>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="151">
-        <v>4</v>
-      </c>
-      <c r="R40" s="143">
-        <v>4</v>
-      </c>
-      <c r="S40" s="150">
-        <v>4</v>
-      </c>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="4"/>
-      <c r="E41" s="135">
-        <v>5</v>
-      </c>
-      <c r="F41" s="137">
-        <v>5</v>
-      </c>
-      <c r="G41" s="132">
-        <v>5</v>
-      </c>
-      <c r="J41" s="157">
-        <v>5</v>
-      </c>
-      <c r="K41" s="146">
-        <v>5</v>
-      </c>
-      <c r="L41" s="158">
-        <v>5</v>
-      </c>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="149">
-        <v>5</v>
-      </c>
-      <c r="R41" s="142">
-        <v>5</v>
-      </c>
-      <c r="S41" s="150">
-        <v>5</v>
-      </c>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="97"/>
-      <c r="E42" s="135">
-        <v>6</v>
-      </c>
-      <c r="F42" s="138">
-        <v>4</v>
-      </c>
-      <c r="G42" s="136">
-        <v>6</v>
-      </c>
-      <c r="J42" s="157">
-        <v>6</v>
-      </c>
-      <c r="K42" s="146">
-        <v>4</v>
-      </c>
-      <c r="L42" s="158">
-        <v>6</v>
-      </c>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="151">
-        <v>6</v>
-      </c>
-      <c r="R42" s="143">
-        <v>6</v>
-      </c>
-      <c r="S42" s="150">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="97"/>
-      <c r="E43" s="139">
+      <c r="M42" s="196">
         <v>7</v>
       </c>
-      <c r="F43" s="140">
+      <c r="N42" s="197"/>
+      <c r="P42" s="156">
         <v>7</v>
       </c>
-      <c r="G43" s="141">
+      <c r="Q42" s="157">
         <v>7</v>
       </c>
-      <c r="J43" s="159">
+      <c r="R42" s="158">
         <v>7</v>
       </c>
-      <c r="K43" s="160">
-        <v>7</v>
-      </c>
-      <c r="L43" s="161">
-        <v>7</v>
-      </c>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="162">
-        <v>7</v>
-      </c>
-      <c r="R43" s="163">
-        <v>7</v>
-      </c>
-      <c r="S43" s="164">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D44" s="97"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="85">
+        <v>8</v>
+      </c>
+      <c r="F43" s="86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="92"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="97"/>
-      <c r="H45" s="122"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J48" s="3"/>
+      <c r="D45" s="92"/>
+      <c r="I45" s="116"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="63" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E2:L2"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId1" display="https://www.senscritique.com/livre/J_irai_cracher_sur_vos_tombes/1350194"/>
-    <hyperlink ref="I16" r:id="rId2" display="https://www.senscritique.com/livre/Voyage_au_bout_de_la_nuit/64476"/>
-    <hyperlink ref="I18" r:id="rId3" display="https://www.senscritique.com/livre/L_Ecume_des_jours/58734"/>
-    <hyperlink ref="I19" r:id="rId4" display="https://www.senscritique.com/livre/Les_Androides_revent_ils_de_moutons_electriques/452029"/>
-    <hyperlink ref="I20" r:id="rId5" display="https://www.senscritique.com/livre/Les_Raisins_de_la_colere/179454"/>
+    <hyperlink ref="R5" r:id="rId1" display="https://www.senscritique.com/livre/J_irai_cracher_sur_vos_tombes/1350194"/>
+    <hyperlink ref="R6" r:id="rId2" display="https://www.senscritique.com/livre/Voyage_au_bout_de_la_nuit/64476"/>
+    <hyperlink ref="R8" r:id="rId3" display="https://www.senscritique.com/livre/L_Ecume_des_jours/58734"/>
+    <hyperlink ref="R9" r:id="rId4" display="https://www.senscritique.com/livre/Les_Androides_revent_ils_de_moutons_electriques/452029"/>
+    <hyperlink ref="R10" r:id="rId5" display="https://www.senscritique.com/livre/Les_Raisins_de_la_colere/179454"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
